--- a/src/main/java/com/aiyyatti/algorithms/ctci/hard/MissingNumber.xlsx
+++ b/src/main/java/com/aiyyatti/algorithms/ctci/hard/MissingNumber.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd1fdef648398a43/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Softwares\code\Algorithms\src\main\java\com\aiyyatti\algorithms\ctci\hard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{2D143F6E-58F2-4AC9-8291-6496B541ADD9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E3F34AD7-F238-426F-B978-EA06C6DB2B5C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D5AE8F-9060-4AA6-8065-EE871CFE2988}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85EE6869-CF39-471A-9AED-70743EAF38C0}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="3">
   <si>
     <t>0s</t>
   </si>
   <si>
     <t>1s</t>
+  </si>
+  <si>
+    <t>Difference</t>
   </si>
 </sst>
 </file>
@@ -91,7 +94,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -114,6 +117,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -121,16 +272,37 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -448,533 +620,370 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406D04A0-0D31-4011-822D-52F96305A372}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="str">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="str">
         <f>DEC2BIN(A1,7)</f>
         <v>0000000</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="1" t="str">
         <f>MID(B1,7,1)</f>
         <v>0</v>
       </c>
-      <c r="D1" t="str">
+      <c r="D1" s="1" t="str">
         <f>MID(B1,6,1)</f>
         <v>0</v>
       </c>
-      <c r="E1" t="str">
+      <c r="E1" s="1" t="str">
         <f>MID(B1,5,1)</f>
         <v>0</v>
       </c>
-      <c r="F1" t="str">
+      <c r="F1" s="1" t="str">
         <f>MID(B1,4,1)</f>
         <v>0</v>
       </c>
-      <c r="G1" s="3" t="str">
-        <f>MID(B1,3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="H1" s="3" t="str">
-        <f>MID(B1,2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="I1" s="3" t="str">
-        <f>MID(B1,1,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="str">
         <f t="shared" ref="B2:B12" si="0">DEC2BIN(A2,7)</f>
         <v>0000001</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="1" t="str">
         <f t="shared" ref="C2:C12" si="1">MID(B2,7,1)</f>
         <v>1</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="1" t="str">
         <f t="shared" ref="D2:D12" si="2">MID(B2,6,1)</f>
         <v>0</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" s="1" t="str">
         <f t="shared" ref="E2:E12" si="3">MID(B2,5,1)</f>
         <v>0</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2" s="1" t="str">
         <f t="shared" ref="F2:F12" si="4">MID(B2,4,1)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="3" t="str">
-        <f t="shared" ref="G2:G12" si="5">MID(B2,3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="3" t="str">
-        <f t="shared" ref="H2:H12" si="6">MID(B2,2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="str">
-        <f t="shared" ref="I2:I12" si="7">MID(B2,1,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0000010</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E3" s="1" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3" s="1" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G3" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0000011</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" s="1" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4" s="1" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G4" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0000100</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" s="1" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F5" s="1" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G5" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0000101</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" s="1" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F6" t="str">
+      <c r="F6" s="1" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G6" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0000110</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E7" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F7" s="1" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G7" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0000111</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E8" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F8" s="1" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G8" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0001000</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D9" s="1" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E9" s="1" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F9" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G9" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0001001</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D10" s="1" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E10" s="1" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F10" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G10" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0001010</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D11" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E11" s="1" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F11" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G11" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0001011</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D12" s="4" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E12" s="4" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F12" s="4" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G12" s="3" t="str">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" ref="C13:F13" si="5">COUNTIF(C1:C12,"0")</f>
+        <v>6</v>
+      </c>
+      <c r="D13" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="str">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" ref="C14:F14" si="6">COUNTIF(C1:C12,1)</f>
+        <v>6</v>
+      </c>
+      <c r="D14" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <f>COUNTIF(C1:C12,"0")</f>
         <v>6</v>
       </c>
-      <c r="D13" s="2">
-        <f>COUNTIF(D1:D12,"0")</f>
-        <v>6</v>
-      </c>
-      <c r="E13" s="2">
-        <f>COUNTIF(E1:E12,"0")</f>
-        <v>8</v>
-      </c>
-      <c r="F13" s="2">
-        <f>COUNTIF(F1:F12,"0")</f>
-        <v>8</v>
-      </c>
-      <c r="G13" s="4">
-        <f>COUNTIF(G1:G12,"0")</f>
-        <v>12</v>
-      </c>
-      <c r="H13" s="4">
-        <f>COUNTIF(H1:H12,"0")</f>
-        <v>12</v>
-      </c>
-      <c r="I13" s="4">
-        <f>COUNTIF(I1:I12,"0")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <f>COUNTIF(C1:C12,1)</f>
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <f>COUNTIF(D1:D12,1)</f>
-        <v>6</v>
-      </c>
-      <c r="E14">
-        <f>COUNTIF(E1:E12,1)</f>
+      <c r="E14" s="1">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="F14">
-        <f>COUNTIF(F1:F12,1)</f>
+      <c r="F14" s="7">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <f>COUNTIF(G1:G12,1)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <f>COUNTIF(H1:H12,1)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <f>COUNTIF(I1:I12,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
         <v>5</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="2">
@@ -982,130 +991,93 @@
         <v>1</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" ref="D15:F15" si="8">COUNTIF(D1:D2,"0")</f>
+        <f t="shared" ref="D15:F15" si="7">COUNTIF(D1:D2,"0")</f>
         <v>2</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="F15" s="2">
-        <f t="shared" si="8"/>
+      <c r="F15" s="8">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="G15" s="4">
-        <f t="shared" ref="D15:I15" si="9">COUNTIF(G1:G5,"0")</f>
-        <v>5</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
         <f>COUNTIF(C2:C5,"0")</f>
         <v>2</v>
       </c>
-      <c r="D16">
-        <f t="shared" ref="D16:I16" si="10">COUNTIF(D2:D5,"0")</f>
+      <c r="D16" s="1">
+        <f t="shared" ref="D16:F16" si="8">COUNTIF(D2:D5,"0")</f>
         <v>2</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="10"/>
+      <c r="E16" s="1">
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="10"/>
+      <c r="F16" s="7">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="G16" s="3">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
         <f>C13-C15</f>
         <v>5</v>
       </c>
-      <c r="D17" s="6">
-        <f t="shared" ref="D17:I17" si="11">D13-D15</f>
+      <c r="D17" s="3">
+        <f t="shared" ref="D17:F17" si="9">D13-D15</f>
         <v>4</v>
       </c>
-      <c r="E17" s="6">
-        <f t="shared" si="11"/>
+      <c r="E17" s="3">
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="F17" s="6">
-        <f t="shared" si="11"/>
+      <c r="F17" s="9">
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="G17" s="6">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="H17" s="6">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="I17" s="6">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C18">
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10">
         <f>C14-C16</f>
         <v>4</v>
       </c>
-      <c r="D18">
-        <f t="shared" ref="D18:I18" si="12">D14-D16</f>
+      <c r="D18" s="10">
+        <f t="shared" ref="D18:F18" si="10">D14-D16</f>
         <v>4</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="12"/>
-        <v>-4</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="12"/>
-        <v>-4</v>
-      </c>
-      <c r="I18" s="3">
-        <f t="shared" si="12"/>
-        <v>-4</v>
+      <c r="E18" s="10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>